--- a/設計書/ロバストネス図/ロバストネス図(システム).xlsx
+++ b/設計書/ロバストネス図/ロバストネス図(システム).xlsx
@@ -56,19 +56,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロバストネス図(システム)</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロバストネス図
 (システム)</t>
     <rPh sb="6" eb="7">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -280,10 +280,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -877,7 +877,7 @@
   <sheetData>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
@@ -1636,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
@@ -2294,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="6" t="s">
